--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>55.82849233333334</v>
+        <v>0.008964666666666668</v>
       </c>
       <c r="H2">
-        <v>167.485477</v>
+        <v>0.026894</v>
       </c>
       <c r="I2">
-        <v>0.9717741676025277</v>
+        <v>0.0001537549234563009</v>
       </c>
       <c r="J2">
-        <v>0.9717741676025275</v>
+        <v>0.0001537549234563009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.69746666666666</v>
+        <v>43.28265566666667</v>
       </c>
       <c r="N2">
-        <v>134.0924</v>
+        <v>129.847967</v>
       </c>
       <c r="O2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="P2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="Q2">
-        <v>2495.392175119422</v>
+        <v>0.3880145804997778</v>
       </c>
       <c r="R2">
-        <v>22458.5295760748</v>
+        <v>3.492131224498</v>
       </c>
       <c r="S2">
-        <v>0.6631359899466515</v>
+        <v>0.0001025882413404895</v>
       </c>
       <c r="T2">
-        <v>0.6631359899466513</v>
+        <v>0.0001025882413404895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>55.82849233333334</v>
+        <v>0.008964666666666668</v>
       </c>
       <c r="H3">
-        <v>167.485477</v>
+        <v>0.026894</v>
       </c>
       <c r="I3">
-        <v>0.9717741676025277</v>
+        <v>0.0001537549234563009</v>
       </c>
       <c r="J3">
-        <v>0.9717741676025275</v>
+        <v>0.0001537549234563009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>55.897306</v>
       </c>
       <c r="O3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="P3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="Q3">
-        <v>1040.220773158329</v>
+        <v>0.1670335719515556</v>
       </c>
       <c r="R3">
-        <v>9361.986958424963</v>
+        <v>1.503302147564</v>
       </c>
       <c r="S3">
-        <v>0.2764326341363187</v>
+        <v>4.416246515597115E-05</v>
       </c>
       <c r="T3">
-        <v>0.2764326341363186</v>
+        <v>4.416246515597114E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>55.82849233333334</v>
+        <v>0.008964666666666668</v>
       </c>
       <c r="H4">
-        <v>167.485477</v>
+        <v>0.026894</v>
       </c>
       <c r="I4">
-        <v>0.9717741676025277</v>
+        <v>0.0001537549234563009</v>
       </c>
       <c r="J4">
-        <v>0.9717741676025275</v>
+        <v>0.0001537549234563009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.170755666666667</v>
+        <v>2.955125333333334</v>
       </c>
       <c r="N4">
-        <v>6.512267</v>
+        <v>8.865376000000001</v>
       </c>
       <c r="O4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999943</v>
       </c>
       <c r="P4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999944</v>
       </c>
       <c r="Q4">
-        <v>121.1900160940399</v>
+        <v>0.02649171357155556</v>
       </c>
       <c r="R4">
-        <v>1090.710144846359</v>
+        <v>0.238425422144</v>
       </c>
       <c r="S4">
-        <v>0.03220554351955749</v>
+        <v>7.004216959840299E-06</v>
       </c>
       <c r="T4">
-        <v>0.03220554351955748</v>
+        <v>7.004216959840298E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.621576</v>
+        <v>55.82849233333334</v>
       </c>
       <c r="H5">
-        <v>4.864727999999999</v>
+        <v>167.485477</v>
       </c>
       <c r="I5">
-        <v>0.02822583239747234</v>
+        <v>0.9575264630094835</v>
       </c>
       <c r="J5">
-        <v>0.02822583239747234</v>
+        <v>0.9575264630094834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.69746666666666</v>
+        <v>43.28265566666667</v>
       </c>
       <c r="N5">
-        <v>134.0924</v>
+        <v>129.847967</v>
       </c>
       <c r="O5">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="P5">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="Q5">
-        <v>72.48033920746666</v>
+        <v>2416.405410052807</v>
       </c>
       <c r="R5">
-        <v>652.3230528672</v>
+        <v>21747.64869047526</v>
       </c>
       <c r="S5">
-        <v>0.01926122954589784</v>
+        <v>0.638880067505875</v>
       </c>
       <c r="T5">
-        <v>0.01926122954589784</v>
+        <v>0.638880067505875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.621576</v>
+        <v>55.82849233333334</v>
       </c>
       <c r="H6">
-        <v>4.864727999999999</v>
+        <v>167.485477</v>
       </c>
       <c r="I6">
-        <v>0.02822583239747234</v>
+        <v>0.9575264630094835</v>
       </c>
       <c r="J6">
-        <v>0.02822583239747234</v>
+        <v>0.9575264630094834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>55.897306</v>
       </c>
       <c r="O6">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="P6">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="Q6">
-        <v>30.21390995808533</v>
+        <v>1040.220773158329</v>
       </c>
       <c r="R6">
-        <v>271.925189622768</v>
+        <v>9361.986958424963</v>
       </c>
       <c r="S6">
-        <v>0.008029171242093458</v>
+        <v>0.2750268291122074</v>
       </c>
       <c r="T6">
-        <v>0.008029171242093456</v>
+        <v>0.2750268291122074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>55.82849233333334</v>
+      </c>
+      <c r="H7">
+        <v>167.485477</v>
+      </c>
+      <c r="I7">
+        <v>0.9575264630094835</v>
+      </c>
+      <c r="J7">
+        <v>0.9575264630094834</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.955125333333334</v>
+      </c>
+      <c r="N7">
+        <v>8.865376000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.04555442389999943</v>
+      </c>
+      <c r="P7">
+        <v>0.04555442389999944</v>
+      </c>
+      <c r="Q7">
+        <v>164.9801920160391</v>
+      </c>
+      <c r="R7">
+        <v>1484.821728144352</v>
+      </c>
+      <c r="S7">
+        <v>0.04361956639140114</v>
+      </c>
+      <c r="T7">
+        <v>0.04361956639140114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.467451</v>
+      </c>
+      <c r="H8">
+        <v>7.402353</v>
+      </c>
+      <c r="I8">
+        <v>0.0423197820670603</v>
+      </c>
+      <c r="J8">
+        <v>0.04231978206706029</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>43.28265566666667</v>
+      </c>
+      <c r="N8">
+        <v>129.847967</v>
+      </c>
+      <c r="O8">
+        <v>0.667219228070094</v>
+      </c>
+      <c r="P8">
+        <v>0.667219228070094</v>
+      </c>
+      <c r="Q8">
+        <v>106.7978320073723</v>
+      </c>
+      <c r="R8">
+        <v>961.180488066351</v>
+      </c>
+      <c r="S8">
+        <v>0.02823657232287858</v>
+      </c>
+      <c r="T8">
+        <v>0.02823657232287857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>1.621576</v>
-      </c>
-      <c r="H7">
-        <v>4.864727999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.02822583239747234</v>
-      </c>
-      <c r="J7">
-        <v>0.02822583239747234</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.170755666666667</v>
-      </c>
-      <c r="N7">
-        <v>6.512267</v>
-      </c>
-      <c r="O7">
-        <v>0.03314097512903853</v>
-      </c>
-      <c r="P7">
-        <v>0.03314097512903853</v>
-      </c>
-      <c r="Q7">
-        <v>3.520045290930667</v>
-      </c>
-      <c r="R7">
-        <v>31.680407618376</v>
-      </c>
-      <c r="S7">
-        <v>0.000935431609481041</v>
-      </c>
-      <c r="T7">
-        <v>0.0009354316094810406</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.467451</v>
+      </c>
+      <c r="H9">
+        <v>7.402353</v>
+      </c>
+      <c r="I9">
+        <v>0.0423197820670603</v>
+      </c>
+      <c r="J9">
+        <v>0.04231978206706029</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.63243533333333</v>
+      </c>
+      <c r="N9">
+        <v>55.897306</v>
+      </c>
+      <c r="O9">
+        <v>0.2872263480299067</v>
+      </c>
+      <c r="P9">
+        <v>0.2872263480299067</v>
+      </c>
+      <c r="Q9">
+        <v>45.97462119566867</v>
+      </c>
+      <c r="R9">
+        <v>413.771590761018</v>
+      </c>
+      <c r="S9">
+        <v>0.01215535645254326</v>
+      </c>
+      <c r="T9">
+        <v>0.01215535645254326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.467451</v>
+      </c>
+      <c r="H10">
+        <v>7.402353</v>
+      </c>
+      <c r="I10">
+        <v>0.0423197820670603</v>
+      </c>
+      <c r="J10">
+        <v>0.04231978206706029</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.955125333333334</v>
+      </c>
+      <c r="N10">
+        <v>8.865376000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.04555442389999943</v>
+      </c>
+      <c r="P10">
+        <v>0.04555442389999944</v>
+      </c>
+      <c r="Q10">
+        <v>7.291626958858667</v>
+      </c>
+      <c r="R10">
+        <v>65.624642629728</v>
+      </c>
+      <c r="S10">
+        <v>0.001927853291638459</v>
+      </c>
+      <c r="T10">
+        <v>0.001927853291638459</v>
       </c>
     </row>
   </sheetData>
